--- a/use_cases/toop-cv-ap-edm/TOOP messaging model package 1.4.1-2/TOOP Data Exchange Model Specification v1.4.1.xlsx
+++ b/use_cases/toop-cv-ap-edm/TOOP messaging model package 1.4.1-2/TOOP Data Exchange Model Specification v1.4.1.xlsx
@@ -33432,8 +33432,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B85E734CC7D26B4088B88745486DF9D1" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1bc4058a37bc35bb4e97dc530affb223">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8f2728af-0bc9-4ce2-9bb6-885ac2e086a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91b25fdf319e04851aeb566948c7dfde" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B85E734CC7D26B4088B88745486DF9D1" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f34dd3e9052ac671e45c1f3a687a9627">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8f2728af-0bc9-4ce2-9bb6-885ac2e086a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fff25ca44122f0d188b72e4e973125ca" ns2:_="">
     <xsd:import namespace="8f2728af-0bc9-4ce2-9bb6-885ac2e086a2"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -33519,8 +33519,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -33625,7 +33625,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E746D5D-712E-4444-8393-F5A4E55294DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB7EEC23-CFC5-432F-87C0-1ABA81B2B42C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
